--- a/ComputationalCluster/doc/SPRINT BACKLOG 1-7.03.15.xlsx
+++ b/ComputationalCluster/doc/SPRINT BACKLOG 1-7.03.15.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>SPRINT</t>
   </si>
@@ -128,10 +128,13 @@
     <t>Utrzymywanie połączenia w wyznaczonym przez serwer przedziale czasu (timeout)</t>
   </si>
   <si>
-    <t>Implementacja nawiązywania połączeń dla TaskManager</t>
-  </si>
-  <si>
-    <t>Podstawowa obsługa połączenia (odebranie id z serwera, timeout) dla TaskManager</t>
+    <t>Implementacja nawiązywanie połączenia dla wszystkich komponentów (w klasie GenericComponent)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Implementacja przesyłania wiadomości dla wszystkich komponentów (w klasie GenericComponent)</t>
   </si>
   <si>
     <t>Jako użytkownik chcę otrzymywać informacje o statusie połączenia</t>
@@ -143,13 +146,13 @@
     <t>Implementacja zachowania pól serwera wyświetlających informacje o klientach</t>
   </si>
   <si>
-    <t>Implementacja kolejkowania wiadomości dla serwera </t>
+    <t>Implementacja kolejkowania wiadomości dla serwera</t>
   </si>
   <si>
     <t>Implementacja obsługi wiadomości otrzymanych przez serwer</t>
   </si>
   <si>
-    <t>Monitorowanie statusu połączenia w Task Manager</t>
+    <t>Wykrywanie problemów z nawiązaniem łączności i wysyłaniem wiadomości, wyświetlenie komunikatu o błędach.</t>
   </si>
   <si>
     <t>Implementacja połączenia z Serverem przez Computational Clienta</t>
@@ -162,9 +165,6 @@
   </si>
   <si>
     <t>Monitorowanie statusu połączenia w Computational Node</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t>Komunikacja z serwerem – wysyłanie I otrzymywanie wiadomości</t>
@@ -320,12 +320,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -497,15 +493,15 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86224489795918"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="89.8928571428571"/>
-    <col collapsed="false" hidden="false" max="10" min="4" style="1" width="8.70918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="111.979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="8.70918367346939"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1683673469388"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4285714285714"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4336734693878"/>
@@ -513,618 +509,616 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5" t="s">
+      <c r="E3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="s">
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5" t="s">
+      <c r="F5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="14"/>
+      <c r="M5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="D6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="17" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="D9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="17" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="D11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="5" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="5" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="5" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="5" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="5" t="s">
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5" t="s">
+      <c r="C17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7"/>
-      <c r="C18" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="5" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5" t="s">
+      <c r="C19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="5" t="s">
+      <c r="C20" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="5" t="s">
+      <c r="C21" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6" t="n">
+      <c r="C22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="5" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="n">
+      <c r="C23" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="5" t="s">
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6" t="n">
+      <c r="C24" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="5" t="s">
+      <c r="J24" s="5"/>
+      <c r="K24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="n">
+      <c r="C25" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="5" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6" t="n">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="5" t="s">
+      <c r="J26" s="5"/>
+      <c r="K26" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6" t="n">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>26</v>
       </c>
     </row>

--- a/ComputationalCluster/doc/SPRINT BACKLOG 1-7.03.15.xlsx
+++ b/ComputationalCluster/doc/SPRINT BACKLOG 1-7.03.15.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="564" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="564"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>SPRINT</t>
   </si>
@@ -168,37 +167,27 @@
   </si>
   <si>
     <t>Komunikacja z serwerem – wysyłanie I otrzymywanie wiadomości</t>
+  </si>
+  <si>
+    <t>Refactoring kodu</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>3/0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -207,7 +196,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,178 +239,137 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="7">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -480,35 +428,330 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+  <a:themeElements>
+    <a:clrScheme name="Pakiet Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Pakiet Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Pakiet Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="111.979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="8.70918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4285714285714"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4336734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="14.4285714285714"/>
+    <col min="1" max="1" width="8.85546875"/>
+    <col min="2" max="2" width="93.28515625"/>
+    <col min="3" max="3" width="112"/>
+    <col min="4" max="10" width="8.7109375"/>
+    <col min="11" max="11" width="19.140625"/>
+    <col min="12" max="12" width="14.42578125"/>
+    <col min="13" max="13" width="17.42578125"/>
+    <col min="14" max="1025" width="14.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -557,8 +800,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -570,22 +813,22 @@
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9" t="n">
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -596,7 +839,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="8" t="s">
@@ -608,19 +851,19 @@
       <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9" t="n">
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -631,7 +874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="13" t="s">
@@ -643,19 +886,19 @@
       <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="n">
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -666,7 +909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="13" t="s">
@@ -678,26 +921,26 @@
       <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="n">
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="15"/>
       <c r="C7" s="13" t="s">
@@ -709,26 +952,26 @@
       <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="n">
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="7" t="s">
         <v>27</v>
@@ -745,23 +988,23 @@
       <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="n">
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="17"/>
       <c r="C9" s="16" t="s">
@@ -776,23 +1019,23 @@
       <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="n">
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16" t="s">
@@ -807,23 +1050,23 @@
       <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="n">
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16" t="s">
@@ -838,24 +1081,24 @@
       <c r="F11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="n">
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -875,7 +1118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C13" s="19" t="s">
         <v>35</v>
       </c>
@@ -890,7 +1133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C14" s="19" t="s">
         <v>36</v>
       </c>
@@ -905,7 +1148,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C15" s="20" t="s">
         <v>37</v>
       </c>
@@ -922,7 +1165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C16" s="20" t="s">
         <v>39</v>
       </c>
@@ -939,7 +1182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
@@ -957,7 +1200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
       <c r="C18" s="21" t="s">
         <v>42</v>
@@ -973,7 +1216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
@@ -988,7 +1231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="21" t="s">
         <v>44</v>
       </c>
@@ -1003,7 +1246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="22" t="s">
         <v>45</v>
       </c>
@@ -1020,14 +1263,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5" t="n">
-        <v>3</v>
+      <c r="F22" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1037,7 +1280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="22" t="s">
         <v>47</v>
       </c>
@@ -1045,7 +1288,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5" t="n">
+      <c r="H23" s="5">
         <v>4</v>
       </c>
       <c r="I23" s="5"/>
@@ -1054,7 +1297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="22" t="s">
         <v>48</v>
       </c>
@@ -1063,7 +1306,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5" t="n">
+      <c r="I24" s="5">
         <v>4</v>
       </c>
       <c r="J24" s="5"/>
@@ -1071,12 +1314,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="22" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="5">
         <v>3</v>
       </c>
       <c r="F25" s="5"/>
@@ -1088,7 +1331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="22" t="s">
         <v>50</v>
       </c>
@@ -1097,7 +1340,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5" t="n">
+      <c r="I26" s="5">
         <v>3</v>
       </c>
       <c r="J26" s="5"/>
@@ -1105,7 +1348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="22" t="s">
         <v>36</v>
       </c>
@@ -1115,20 +1358,26 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5" t="n">
+      <c r="J27" s="5">
         <v>3</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="28" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C28" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/ComputationalCluster/doc/SPRINT BACKLOG 1-7.03.15.xlsx
+++ b/ComputationalCluster/doc/SPRINT BACKLOG 1-7.03.15.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="564"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="564" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -130,7 +131,7 @@
     <t>Implementacja nawiązywanie połączenia dla wszystkich komponentów (w klasie GenericComponent)</t>
   </si>
   <si>
-    <t>1</t>
+    <t>1/1.5</t>
   </si>
   <si>
     <t>Implementacja przesyłania wiadomości dla wszystkich komponentów (w klasie GenericComponent)</t>
@@ -157,6 +158,9 @@
     <t>Implementacja połączenia z Serverem przez Computational Clienta</t>
   </si>
   <si>
+    <t>3/0</t>
+  </si>
+  <si>
     <t>Implementacja wysyłania wiadomości przez Computational Clienta</t>
   </si>
   <si>
@@ -173,21 +177,37 @@
   </si>
   <si>
     <t>1/2</t>
-  </si>
-  <si>
-    <t>3/0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -196,7 +216,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +255,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF66FF00"/>
+        <bgColor rgb="FF92D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
@@ -242,134 +268,204 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="7">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="27">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -413,8 +509,8 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF66FF00"/>
+      <rgbColor rgb="FF92D050"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF3333"/>
@@ -428,330 +524,35 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
-  <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.85546875"/>
-    <col min="2" max="2" width="93.28515625"/>
-    <col min="3" max="3" width="112"/>
-    <col min="4" max="10" width="8.7109375"/>
-    <col min="11" max="11" width="19.140625"/>
-    <col min="12" max="12" width="14.42578125"/>
-    <col min="13" max="13" width="17.42578125"/>
-    <col min="14" max="1025" width="14.42578125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="112"/>
+    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="8.70918367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1428571428571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -800,8 +601,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -813,22 +614,22 @@
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="E3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -839,7 +640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="8" t="s">
@@ -851,19 +652,19 @@
       <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="F4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -874,7 +675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="13" t="s">
@@ -886,19 +687,19 @@
       <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="F5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -909,7 +710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="13" t="s">
@@ -921,26 +722,26 @@
       <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="F6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11"/>
       <c r="B7" s="15"/>
       <c r="C7" s="13" t="s">
@@ -952,26 +753,26 @@
       <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11"/>
       <c r="B8" s="7" t="s">
         <v>27</v>
@@ -988,23 +789,23 @@
       <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="17"/>
       <c r="C9" s="16" t="s">
@@ -1019,23 +820,23 @@
       <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16" t="s">
@@ -1050,23 +851,23 @@
       <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16" t="s">
@@ -1081,24 +882,24 @@
       <c r="F11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1118,7 +919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="19" t="s">
         <v>35</v>
       </c>
@@ -1133,7 +934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="19" t="s">
         <v>36</v>
       </c>
@@ -1148,7 +949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="20" t="s">
         <v>37</v>
       </c>
@@ -1165,7 +966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="20" t="s">
         <v>39</v>
       </c>
@@ -1182,11 +983,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D17" s="5"/>
@@ -1200,9 +1001,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="22" t="s">
         <v>42</v>
       </c>
       <c r="D18" s="5"/>
@@ -1216,7 +1017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
@@ -1231,8 +1032,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="21" t="s">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C20" s="22" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="5"/>
@@ -1246,14 +1047,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="22" t="s">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C21" s="23" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1263,14 +1064,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="22" t="s">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C22" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1280,15 +1081,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="22" t="s">
-        <v>47</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C23" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5">
+      <c r="H23" s="5" t="n">
         <v>4</v>
       </c>
       <c r="I23" s="5"/>
@@ -1297,16 +1098,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="22" t="s">
-        <v>48</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C24" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5">
+      <c r="I24" s="5" t="n">
         <v>4</v>
       </c>
       <c r="J24" s="5"/>
@@ -1314,12 +1115,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="22" t="s">
-        <v>49</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C25" s="24" t="s">
+        <v>50</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="5">
+      <c r="E25" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F25" s="5"/>
@@ -1331,16 +1132,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="22" t="s">
-        <v>50</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C26" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5">
+      <c r="I26" s="5" t="n">
         <v>3</v>
       </c>
       <c r="J26" s="5"/>
@@ -1348,8 +1149,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="22" t="s">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C27" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="5"/>
@@ -1358,26 +1159,31 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5">
+      <c r="J27" s="5" t="n">
         <v>3</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C28" s="24" t="s">
-        <v>51</v>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="26" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/ComputationalCluster/doc/SPRINT BACKLOG 1-7.03.15.xlsx
+++ b/ComputationalCluster/doc/SPRINT BACKLOG 1-7.03.15.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="564"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="564" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>SPRINT</t>
   </si>
@@ -167,27 +168,37 @@
   </si>
   <si>
     <t>Komunikacja z serwerem – wysyłanie I otrzymywanie wiadomości</t>
-  </si>
-  <si>
-    <t>Refactoring kodu</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>3/0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -196,7 +207,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,137 +250,178 @@
         <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
-    <border>
+  <borders count="6">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="23">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -428,330 +480,35 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
-  <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col min="1" max="1" width="8.85546875"/>
-    <col min="2" max="2" width="93.28515625"/>
-    <col min="3" max="3" width="112"/>
-    <col min="4" max="10" width="8.7109375"/>
-    <col min="11" max="11" width="19.140625"/>
-    <col min="12" max="12" width="14.42578125"/>
-    <col min="13" max="13" width="17.42578125"/>
-    <col min="14" max="1025" width="14.42578125"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="111.979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="8.70918367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -800,8 +557,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -813,22 +570,22 @@
       <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="E3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -839,7 +596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="8" t="s">
@@ -851,19 +608,19 @@
       <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="F4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -874,7 +631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="13" t="s">
@@ -886,19 +643,19 @@
       <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
+      <c r="F5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -909,7 +666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="13" t="s">
@@ -921,26 +678,26 @@
       <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="F6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11"/>
       <c r="B7" s="15"/>
       <c r="C7" s="13" t="s">
@@ -952,26 +709,26 @@
       <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11"/>
       <c r="B8" s="7" t="s">
         <v>27</v>
@@ -988,23 +745,23 @@
       <c r="F8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11"/>
       <c r="B9" s="17"/>
       <c r="C9" s="16" t="s">
@@ -1019,23 +776,23 @@
       <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16" t="s">
@@ -1050,23 +807,23 @@
       <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15"/>
       <c r="B11" s="18"/>
       <c r="C11" s="16" t="s">
@@ -1081,24 +838,24 @@
       <c r="F11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1118,7 +875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="19" t="s">
         <v>35</v>
       </c>
@@ -1133,7 +890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="19" t="s">
         <v>36</v>
       </c>
@@ -1148,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="20" t="s">
         <v>37</v>
       </c>
@@ -1165,7 +922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="20" t="s">
         <v>39</v>
       </c>
@@ -1182,7 +939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
@@ -1200,7 +957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6"/>
       <c r="C18" s="21" t="s">
         <v>42</v>
@@ -1216,7 +973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
@@ -1231,7 +988,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C20" s="21" t="s">
         <v>44</v>
       </c>
@@ -1246,7 +1003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C21" s="22" t="s">
         <v>45</v>
       </c>
@@ -1263,14 +1020,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C22" s="22" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>53</v>
+      <c r="F22" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -1280,7 +1037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C23" s="22" t="s">
         <v>47</v>
       </c>
@@ -1288,7 +1045,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="5">
+      <c r="H23" s="5" t="n">
         <v>4</v>
       </c>
       <c r="I23" s="5"/>
@@ -1297,7 +1054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C24" s="22" t="s">
         <v>48</v>
       </c>
@@ -1306,7 +1063,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5">
+      <c r="I24" s="5" t="n">
         <v>4</v>
       </c>
       <c r="J24" s="5"/>
@@ -1314,12 +1071,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C25" s="22" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="5">
+      <c r="E25" s="5" t="n">
         <v>3</v>
       </c>
       <c r="F25" s="5"/>
@@ -1331,7 +1088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C26" s="22" t="s">
         <v>50</v>
       </c>
@@ -1340,7 +1097,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5">
+      <c r="I26" s="5" t="n">
         <v>3</v>
       </c>
       <c r="J26" s="5"/>
@@ -1348,7 +1105,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="22" t="s">
         <v>36</v>
       </c>
@@ -1358,26 +1115,20 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5">
+      <c r="J27" s="5" t="n">
         <v>3</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="C28" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/ComputationalCluster/doc/SPRINT BACKLOG 1-7.03.15.xlsx
+++ b/ComputationalCluster/doc/SPRINT BACKLOG 1-7.03.15.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>SPRINT</t>
   </si>
@@ -128,13 +128,10 @@
     <t>Utrzymywanie połączenia w wyznaczonym przez serwer przedziale czasu (timeout)</t>
   </si>
   <si>
-    <t>Implementacja nawiązywanie połączenia dla wszystkich komponentów (w klasie GenericComponent)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Implementacja przesyłania wiadomości dla wszystkich komponentów (w klasie GenericComponent)</t>
+    <t>Implementacja nawiązywania połączeń dla TaskManager</t>
+  </si>
+  <si>
+    <t>Podstawowa obsługa połączenia (odebranie id z serwera, timeout) dla TaskManager</t>
   </si>
   <si>
     <t>Jako użytkownik chcę otrzymywać informacje o statusie połączenia</t>
@@ -146,13 +143,13 @@
     <t>Implementacja zachowania pól serwera wyświetlających informacje o klientach</t>
   </si>
   <si>
-    <t>Implementacja kolejkowania wiadomości dla serwera</t>
+    <t>Implementacja kolejkowania wiadomości dla serwera </t>
   </si>
   <si>
     <t>Implementacja obsługi wiadomości otrzymanych przez serwer</t>
   </si>
   <si>
-    <t>Wykrywanie problemów z nawiązaniem łączności i wysyłaniem wiadomości, wyświetlenie komunikatu o błędach.</t>
+    <t>Monitorowanie statusu połączenia w Task Manager</t>
   </si>
   <si>
     <t>Implementacja połączenia z Serverem przez Computational Clienta</t>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Monitorowanie statusu połączenia w Computational Node</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>Komunikacja z serwerem – wysyłanie I otrzymywanie wiadomości</t>
@@ -320,8 +320,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,15 +497,15 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.86224489795918"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="111.979591836735"/>
-    <col collapsed="false" hidden="false" max="10" min="4" style="0" width="8.70918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="89.8928571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="4" style="1" width="8.70918367346939"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1683673469388"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.4285714285714"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.4336734693878"/>
@@ -509,616 +513,618 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="6" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="E3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="6" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="F5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="6" t="s">
+      <c r="L5" s="15"/>
+      <c r="M5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="D6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="D8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="D9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="4" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="4" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="4" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="20" t="s">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="4" t="s">
+      <c r="C17" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="7"/>
+      <c r="C18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C21" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6"/>
-      <c r="C18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C20" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C21" s="22" t="s">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C22" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C22" s="22" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C23" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="n">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C24" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C25" s="22" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="n">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C26" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="4" t="s">
+      <c r="J26" s="6"/>
+      <c r="K26" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C26" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5" t="n">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C27" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
